--- a/Fipe_temp_teste.xlsx
+++ b/Fipe_temp_teste.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.vinicius\Documents\Vscode\Fipe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316FFE7C-FB8A-4BDD-9921-C183800F2262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$314</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -706,8 +715,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,13 +779,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -814,7 +831,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -848,6 +865,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -882,9 +900,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1057,14 +1076,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1133,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1153,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1144,7 +1173,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1193,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1184,7 +1213,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1233,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1224,7 +1253,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1273,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1264,7 +1293,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1284,7 +1313,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1333,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1353,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1344,7 +1373,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1364,7 +1393,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1413,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1404,7 +1433,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1424,7 +1453,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1444,7 +1473,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1464,7 +1493,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +1513,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1504,7 +1533,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1524,7 +1553,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1544,7 +1573,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1564,7 +1593,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1584,7 +1613,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1604,7 +1633,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1624,7 +1653,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1644,7 +1673,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1664,7 +1693,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1684,7 +1713,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1704,7 +1733,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1724,7 +1753,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1744,7 +1773,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1764,7 +1793,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1784,7 +1813,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1804,7 +1833,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1824,7 +1853,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1844,7 +1873,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1864,7 +1893,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1884,7 +1913,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1904,7 +1933,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1924,7 +1953,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1944,7 +1973,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +1993,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1984,7 +2013,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2004,7 +2033,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2024,7 +2053,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2044,7 +2073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2064,7 +2093,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2084,7 +2113,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2104,7 +2133,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2124,7 +2153,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2144,7 +2173,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2164,7 +2193,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2184,7 +2213,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2204,7 +2233,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2224,7 +2253,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2244,7 +2273,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2264,7 +2293,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2313,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2304,7 +2333,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2324,7 +2353,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2344,7 +2373,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -2364,7 +2393,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2384,7 +2413,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -2404,7 +2433,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2424,7 +2453,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2444,7 +2473,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -2464,7 +2493,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2484,7 +2513,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2504,7 +2533,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2524,7 +2553,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2544,7 +2573,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -2564,7 +2593,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2584,7 +2613,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -2604,7 +2633,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -2624,7 +2653,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2644,7 +2673,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2664,7 +2693,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2684,7 +2713,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2704,7 +2733,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -2724,7 +2753,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -2744,7 +2773,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2764,7 +2793,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -2784,7 +2813,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -2804,7 +2833,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -2824,7 +2853,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2844,7 +2873,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2864,7 +2893,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -2884,7 +2913,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2904,7 +2933,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -2924,7 +2953,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -2944,7 +2973,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -2964,7 +2993,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -2984,7 +3013,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -3004,7 +3033,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3053,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3044,7 +3073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -3064,7 +3093,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -3084,7 +3113,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3104,7 +3133,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -3124,7 +3153,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -3144,7 +3173,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3164,7 +3193,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -3184,7 +3213,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -3204,7 +3233,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -3224,7 +3253,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3244,7 +3273,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -3264,7 +3293,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -3284,7 +3313,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3304,7 +3333,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -3324,7 +3353,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3344,7 +3373,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -3364,7 +3393,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -3384,7 +3413,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -3404,7 +3433,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -3424,7 +3453,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -3444,7 +3473,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -3464,7 +3493,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -3484,7 +3513,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3504,7 +3533,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -3524,7 +3553,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -3544,7 +3573,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -3564,7 +3593,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -3584,7 +3613,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -3604,7 +3633,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -3624,7 +3653,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -3644,7 +3673,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -3664,7 +3693,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -3684,7 +3713,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -3704,7 +3733,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -3724,7 +3753,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -3744,7 +3773,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -3764,7 +3793,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -3784,7 +3813,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -3804,7 +3833,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -3824,7 +3853,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -3844,7 +3873,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -3864,7 +3893,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -3884,7 +3913,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -3904,7 +3933,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -3924,7 +3953,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -3944,7 +3973,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -3964,7 +3993,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -3984,7 +4013,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -4004,7 +4033,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -4024,7 +4053,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -4044,7 +4073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -4064,7 +4093,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -4084,7 +4113,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -4104,7 +4133,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -4124,7 +4153,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -4144,7 +4173,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -4164,7 +4193,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4184,7 +4213,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -4204,7 +4233,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -4224,7 +4253,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -4244,7 +4273,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -4264,7 +4293,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -4284,7 +4313,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -4304,7 +4333,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -4324,7 +4353,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -4344,7 +4373,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -4364,7 +4393,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -4384,7 +4413,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -4404,7 +4433,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -4424,7 +4453,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -4444,7 +4473,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -4464,7 +4493,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -4484,7 +4513,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -4504,7 +4533,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -4524,7 +4553,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -4544,7 +4573,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -4564,7 +4593,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -4584,7 +4613,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -4604,7 +4633,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -4624,7 +4653,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -4644,7 +4673,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -4664,7 +4693,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -4684,7 +4713,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -4704,7 +4733,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -4724,7 +4753,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -4744,7 +4773,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -4764,7 +4793,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -4784,7 +4813,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -4804,7 +4833,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -4824,7 +4853,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -4844,7 +4873,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -4864,7 +4893,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -4884,7 +4913,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -4904,7 +4933,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -4924,7 +4953,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -4944,7 +4973,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -4964,7 +4993,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -4984,7 +5013,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -5004,7 +5033,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -5024,7 +5053,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -5044,7 +5073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -5064,7 +5093,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>10</v>
       </c>
@@ -5084,7 +5113,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -5104,7 +5133,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -5124,7 +5153,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>10</v>
       </c>
@@ -5144,7 +5173,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -5164,7 +5193,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -5184,7 +5213,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>10</v>
       </c>
@@ -5204,7 +5233,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -5224,7 +5253,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>10</v>
       </c>
@@ -5244,7 +5273,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -5264,7 +5293,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>10</v>
       </c>
@@ -5284,7 +5313,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>12</v>
       </c>
@@ -5304,7 +5333,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -5324,7 +5353,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -5344,7 +5373,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>10</v>
       </c>
@@ -5364,7 +5393,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -5384,7 +5413,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -5404,7 +5433,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -5424,7 +5453,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -5444,7 +5473,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -5464,7 +5493,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -5484,7 +5513,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -5504,7 +5533,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -5524,7 +5553,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -5544,7 +5573,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>10</v>
       </c>
@@ -5564,7 +5593,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -5584,7 +5613,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -5604,7 +5633,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>10</v>
       </c>
@@ -5624,7 +5653,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>12</v>
       </c>
@@ -5644,7 +5673,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -5664,7 +5693,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>12</v>
       </c>
@@ -5684,7 +5713,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>10</v>
       </c>
@@ -5704,7 +5733,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -5724,7 +5753,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>12</v>
       </c>
@@ -5744,7 +5773,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>10</v>
       </c>
@@ -5764,7 +5793,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>12</v>
       </c>
@@ -5784,7 +5813,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -5804,7 +5833,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>10</v>
       </c>
@@ -5824,7 +5853,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>12</v>
       </c>
@@ -5844,7 +5873,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -5864,7 +5893,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>12</v>
       </c>
@@ -5884,7 +5913,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>10</v>
       </c>
@@ -5904,7 +5933,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -5924,7 +5953,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>12</v>
       </c>
@@ -5944,7 +5973,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>10</v>
       </c>
@@ -5964,7 +5993,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>12</v>
       </c>
@@ -5984,7 +6013,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -6004,7 +6033,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>10</v>
       </c>
@@ -6024,7 +6053,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>12</v>
       </c>
@@ -6044,7 +6073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -6064,7 +6093,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>12</v>
       </c>
@@ -6084,7 +6113,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>10</v>
       </c>
@@ -6104,7 +6133,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -6124,7 +6153,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>12</v>
       </c>
@@ -6144,7 +6173,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>10</v>
       </c>
@@ -6164,7 +6193,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>12</v>
       </c>
@@ -6184,7 +6213,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -6204,7 +6233,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>10</v>
       </c>
@@ -6224,7 +6253,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>12</v>
       </c>
@@ -6244,7 +6273,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -6264,7 +6293,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -6284,7 +6313,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -6304,7 +6333,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -6324,7 +6353,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -6344,7 +6373,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>10</v>
       </c>
@@ -6364,7 +6393,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>12</v>
       </c>
@@ -6384,7 +6413,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -6404,7 +6433,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>12</v>
       </c>
@@ -6424,7 +6453,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>10</v>
       </c>
@@ -6444,7 +6473,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>7</v>
       </c>
@@ -6464,7 +6493,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -6484,7 +6513,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>10</v>
       </c>
@@ -6504,7 +6533,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>7</v>
       </c>
@@ -6524,7 +6553,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>12</v>
       </c>
@@ -6544,7 +6573,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>10</v>
       </c>
@@ -6564,7 +6593,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>12</v>
       </c>
@@ -6584,7 +6613,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -6604,7 +6633,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>10</v>
       </c>
@@ -6624,7 +6653,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -6644,7 +6673,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -6664,7 +6693,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>12</v>
       </c>
@@ -6684,7 +6713,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>10</v>
       </c>
@@ -6704,7 +6733,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -6724,7 +6753,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>12</v>
       </c>
@@ -6744,7 +6773,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>10</v>
       </c>
@@ -6764,7 +6793,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -6784,7 +6813,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>12</v>
       </c>
@@ -6804,7 +6833,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>10</v>
       </c>
@@ -6824,7 +6853,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -6844,7 +6873,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>12</v>
       </c>
@@ -6864,7 +6893,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -6884,7 +6913,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>10</v>
       </c>
@@ -6904,7 +6933,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -6924,7 +6953,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>12</v>
       </c>
@@ -6944,7 +6973,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -6964,7 +6993,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>10</v>
       </c>
@@ -6984,7 +7013,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -7004,7 +7033,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -7024,7 +7053,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>10</v>
       </c>
@@ -7044,7 +7073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>12</v>
       </c>
@@ -7064,7 +7093,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>12</v>
       </c>
@@ -7084,7 +7113,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>10</v>
       </c>
@@ -7104,7 +7133,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -7124,7 +7153,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>12</v>
       </c>
@@ -7144,7 +7173,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -7164,7 +7193,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>10</v>
       </c>
@@ -7184,7 +7213,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>12</v>
       </c>
@@ -7204,7 +7233,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -7224,7 +7253,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>10</v>
       </c>
@@ -7244,7 +7273,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>12</v>
       </c>
@@ -7264,7 +7293,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -7284,7 +7313,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>10</v>
       </c>
@@ -7304,7 +7333,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -7324,7 +7353,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>12</v>
       </c>
